--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_4_5.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_4_5.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_1</t>
+          <t>model_4_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9994993314345657</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6807836917142018</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9995311248630623</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994709481872122</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9995033985124521</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002972184881976734</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1895005900249637</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002362308080369912</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003235943190150545</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002799125635260229</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007314613056699591</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01724002575977407</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00032475798839</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01797396934814082</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P2" t="n">
-        <v>138.2420860782451</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.5935113952054</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_0</t>
+          <t>model_4_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994912738785552</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6806725964963172</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9995177519805934</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994621476602703</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999492646902909</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003020018015138525</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1895665409453636</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000242968394619271</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003289771576215597</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002859727761204153</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007272400149046574</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01737819902964207</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000329984511207</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01811802494016521</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P3" t="n">
-        <v>138.2101551506591</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q3" t="n">
-        <v>212.5615804676193</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_2</t>
+          <t>model_4_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995884890564247</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6805244261680253</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9995955638490152</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995570198056956</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9995788980773886</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002442906724534408</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1896545012528625</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000203764864502127</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000270948649731952</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002373567571170395</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006637666654786229</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01562980078099017</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000266926017454</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01629519375838487</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P4" t="n">
-        <v>138.6343035222716</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q4" t="n">
-        <v>212.9857288392319</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_3</t>
+          <t>model_4_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996605975708142</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6802560010834803</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D5" t="n">
-        <v>0.99964623673747</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996270639868738</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9996395491673979</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002014839433862163</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1898138499784083</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001782346189373121</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002281061557426891</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002031703873400006</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006071359635986984</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0141945039852126</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000220152927039</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01479879340653709</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P5" t="n">
-        <v>139.0196017303616</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q5" t="n">
-        <v>213.3710270473218</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_4</t>
+          <t>model_4_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997189389210986</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6799893426092419</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9996861689170946</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996841093806288</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9996883471694329</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001668499976422575</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1899721499677625</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001581158062380045</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001932143646196035</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000175665085428804</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005565925306493969</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01291704291400541</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000182309889017</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01346694817281964</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P6" t="n">
-        <v>139.3968307337956</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q6" t="n">
-        <v>213.7482560507559</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_5</t>
+          <t>model_4_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997661502543665</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C7" t="n">
-        <v>0.679729211627375</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9997175350307801</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997306428810733</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9997276133084753</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001388233107910381</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1901265749556721</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001423127879135751</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001647521686234354</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001535324782685053</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005113797941948074</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01178233044821941</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000151686321492</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0122839286481865</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P7" t="n">
-        <v>139.7646171576248</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q7" t="n">
-        <v>214.116042474585</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_6</t>
+          <t>model_4_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998043580865289</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6794793507966308</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9997421346138012</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997686344621204</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997592206973863</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000116141491127044</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1902749031382277</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001299189139017903</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001415146340377603</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001357167739697753</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004710381400388681</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01077689617315876</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000126902862792</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01123569095450066</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P8" t="n">
-        <v>140.1214027181094</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q8" t="n">
-        <v>214.4728280350697</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_7</t>
+          <t>model_4_5_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998352682734438</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6792390119238501</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9997612789460201</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997996600634593</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9997846104429241</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G9" t="n">
-        <v>9.779186892382856e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H9" t="n">
-        <v>0.190417578675209</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001202735292074493</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001225378380139548</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001214056836107021</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004350871867086601</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009888977142446461</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00010685301182</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01030997137240515</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P9" t="n">
-        <v>140.4653382484359</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q9" t="n">
-        <v>214.8167635653962</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_8</t>
+          <t>model_4_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998602780248013</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6790126525177518</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9997761156523683</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998250659489818</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998050258943902</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G10" t="n">
-        <v>8.294500015304569e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1905519553968862</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001127984322079416</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001069983388082123</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001098983855080769</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00402908627891485</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M10" t="n">
-        <v>0.009107414570175538</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000090630470399</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O10" t="n">
-        <v>0.009495136063375089</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P10" t="n">
-        <v>140.7946656371498</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q10" t="n">
-        <v>215.14609095411</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_9</t>
+          <t>model_4_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998804995024024</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6787998943287875</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999787494236268</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998458631616336</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998213952811452</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G11" t="n">
-        <v>7.094065752661896e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1906782578485306</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001070656222183005</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J11" t="n">
-        <v>9.427773242750526e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001006716773229029</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003741217371081266</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00842262770913086</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000077513836279</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008781196407951516</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P11" t="n">
-        <v>141.1073336797814</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.4587589967416</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_10</t>
+          <t>model_4_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.999896838678824</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C12" t="n">
-        <v>0.678601457604627</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9997961022222268</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998628949323216</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998344833897622</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G12" t="n">
-        <v>6.124101658715756e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1907960584600124</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000102728707508115</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J12" t="n">
-        <v>8.386025704192733e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K12" t="n">
-        <v>9.329448227502115e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003483825760112647</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M12" t="n">
-        <v>0.007825663971009589</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000066915451574</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O12" t="n">
-        <v>0.008158818687613126</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P12" t="n">
-        <v>141.401386774522</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q12" t="n">
-        <v>215.7528120914823</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_11</t>
+          <t>model_4_5_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999910031353797</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6784159482853542</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998024863298587</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998768759571312</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998449223379973</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G13" t="n">
-        <v>5.340927482928209e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1909061848055181</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I13" t="n">
-        <v>9.951223731028883e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J13" t="n">
-        <v>7.530876909121413e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K13" t="n">
-        <v>8.741050320075147e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003253795949145122</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M13" t="n">
-        <v>0.007308164942670772</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00005835804078</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007619288654267258</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P13" t="n">
-        <v>141.6750522822763</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q13" t="n">
-        <v>216.0264775992366</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999207003928016</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6782460868967791</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998072666500297</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998883725030857</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998532965014508</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G14" t="n">
-        <v>4.707567239767145e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1910070218634062</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I14" t="n">
-        <v>9.71037946190027e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J14" t="n">
-        <v>6.827691158826334e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K14" t="n">
-        <v>8.269035310363301e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003047370378742448</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006861171357550506</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000051437583048</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O14" t="n">
-        <v>0.007153265626824139</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P14" t="n">
-        <v>141.927508399965</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.2789337169253</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_13</t>
+          <t>model_4_5_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999292948535664</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6780888255012909</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998106134722625</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998977963223976</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998599053925236</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G15" t="n">
-        <v>4.197362922625489e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1911003790211065</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I15" t="n">
-        <v>9.541758339104112e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J15" t="n">
-        <v>6.251283646545886e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K15" t="n">
-        <v>7.896520992824998e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002862741186776408</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006478705829581622</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000045862797687</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006754517749516832</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P15" t="n">
-        <v>142.1569380248854</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q15" t="n">
-        <v>216.5083633418456</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_14</t>
+          <t>model_4_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999936225576431</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6779441067899565</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998129421744729</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999905547584384</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998651517752565</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G16" t="n">
-        <v>3.785925274219593e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1911862902996774</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I16" t="n">
-        <v>9.424432603212282e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J16" t="n">
-        <v>5.777178032817234e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K16" t="n">
-        <v>7.600805318014758e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002697161245056483</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006152987302294384</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000041367193666</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006414932710192674</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P16" t="n">
-        <v>142.3632702995473</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q16" t="n">
-        <v>216.7146956165076</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_15</t>
+          <t>model_4_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999418166829925</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6778117072079708</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9998145159057952</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999119200799574</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998693126607264</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G17" t="n">
-        <v>3.454013036405028e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1912648884109083</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I17" t="n">
-        <v>9.345144154626058e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J17" t="n">
-        <v>5.387404608799763e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K17" t="n">
-        <v>7.366274381712911e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002548484794413563</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005877085192852855</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000037740529951</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006127284876756116</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P17" t="n">
-        <v>142.5467774219215</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.8982027388817</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_16</t>
+          <t>model_4_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999463119558448</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6776906564279415</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998154649169579</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999171448809929</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998725716346806</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G18" t="n">
-        <v>3.187154221325086e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1913367493830552</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I18" t="n">
-        <v>9.297330641781379e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J18" t="n">
-        <v>5.067829872980412e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K18" t="n">
-        <v>7.182580257380895e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002415335624107242</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005645488660271213</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00003482467729</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00588582880031156</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P18" t="n">
-        <v>142.7075940799086</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q18" t="n">
-        <v>217.0590193968688</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_17</t>
+          <t>model_4_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999499320954605</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6775804665340084</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9998159831785897</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999214368290873</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998751319547895</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G19" t="n">
-        <v>2.97224709555277e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1914021628640494</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I19" t="n">
-        <v>9.271219348092893e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J19" t="n">
-        <v>4.805313048107847e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K19" t="n">
-        <v>7.03826619810037e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002295783654017127</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005451831889881391</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00003247647862</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005683927660281463</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P19" t="n">
-        <v>142.8472144008045</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q19" t="n">
-        <v>217.1986397177648</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_18</t>
+          <t>model_4_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999528367535856</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6774801095550227</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9998161266438284</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999249787879102</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998771178448472</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G20" t="n">
-        <v>2.799814041777334e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1914617391019711</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I20" t="n">
-        <v>9.263991217065711e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J20" t="n">
-        <v>4.588669285520843e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K20" t="n">
-        <v>6.926330251293277e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002188510706969011</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005291326905207554</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000030592376053</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005516589646118939</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P20" t="n">
-        <v>142.966744927291</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.3181702442513</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_19</t>
+          <t>model_4_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999551599879573</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6773886396096211</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9998159814446327</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999278688560393</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998786210250631</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G21" t="n">
-        <v>2.66189681362303e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1915160396128573</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I21" t="n">
-        <v>9.271306709104148e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J21" t="n">
-        <v>4.411898389825237e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K21" t="n">
-        <v>6.841602549464692e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002092403671678935</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005159357337520857</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000029085413217</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O21" t="n">
-        <v>0.005379001860721154</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P21" t="n">
-        <v>143.0677730169495</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q21" t="n">
-        <v>217.4191983339097</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_20</t>
+          <t>model_4_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999570226461566</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6773054262617466</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9998157030690681</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999302344976191</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998797801456146</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G22" t="n">
-        <v>2.551321376643614e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1915654386507851</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I22" t="n">
-        <v>9.285331953647234e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J22" t="n">
-        <v>4.267204021988828e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K22" t="n">
-        <v>6.77626798781803e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002006043926220754</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005051060657568482</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000027877202493</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005266094766898174</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P22" t="n">
-        <v>143.1526281061866</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q22" t="n">
-        <v>217.5040534231469</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_21</t>
+          <t>model_4_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999585257548834</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6772304894559931</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D23" t="n">
-        <v>0.99981538660183</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999321832663015</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998806960579854</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G23" t="n">
-        <v>2.462090349533564e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1916099243757818</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I23" t="n">
-        <v>9.301276350244053e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J23" t="n">
-        <v>4.148007667402373e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K23" t="n">
-        <v>6.724642008823213e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001928245277549474</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M23" t="n">
-        <v>0.004961945535305243</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000026902213049</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005173185829386455</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P23" t="n">
-        <v>143.2238294805282</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q23" t="n">
-        <v>217.5752547974884</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_22</t>
+          <t>model_4_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999597181082059</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6771623336439796</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9998149172260897</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999337827178744</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998813541015849</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G24" t="n">
-        <v>2.39130710560974e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1916503846099708</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I24" t="n">
-        <v>9.324924652670053e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J24" t="n">
-        <v>4.050177279149041e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K24" t="n">
-        <v>6.687550965909547e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001858560048095482</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M24" t="n">
-        <v>0.004890099288981503</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000026128794677</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O24" t="n">
-        <v>0.00509828093961448</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P24" t="n">
-        <v>143.2821706848252</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q24" t="n">
-        <v>217.6335960017854</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_23</t>
+          <t>model_4_5_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999606619472858</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6771002429790914</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9998143768840398</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999350789131345</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998818158898061</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G25" t="n">
-        <v>2.335276740655654e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1916872443108255</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I25" t="n">
-        <v>9.352148412049903e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J25" t="n">
-        <v>3.970895550526503e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K25" t="n">
-        <v>6.661521981288203e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001796022513717782</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004832470114398696</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000025516574734</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O25" t="n">
-        <v>0.005038198371760846</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P25" t="n">
-        <v>143.3295901247801</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q25" t="n">
-        <v>217.6810154417403</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999614198696986</v>
+        <v>0.445980542904741</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6770444426233959</v>
+        <v>-0.05067851974480586</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9998138575768579</v>
+        <v>-0.09972987042821879</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999361509225427</v>
+        <v>-2.197770350524112</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998821654418153</v>
+        <v>-0.07182324804279538</v>
       </c>
       <c r="G26" t="n">
-        <v>2.29028319218146e-05</v>
+        <v>0.3288898821261522</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1917203698124162</v>
+        <v>0.6237281562693088</v>
       </c>
       <c r="I26" t="n">
-        <v>9.378312383126388e-05</v>
+        <v>0.5329068068308546</v>
       </c>
       <c r="J26" t="n">
-        <v>3.905326140110904e-05</v>
+        <v>0.3736368866304284</v>
       </c>
       <c r="K26" t="n">
-        <v>6.641819261618646e-05</v>
+        <v>0.4532718467306415</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001739638127320892</v>
+        <v>0.279043433096329</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004785690328658406</v>
+        <v>0.5734892170966707</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000025024949385</v>
+        <v>0.05025235926527027</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004989427073694085</v>
+        <v>0.5979038403548141</v>
       </c>
       <c r="P26" t="n">
-        <v>143.3684999806837</v>
+        <v>22.22406457805329</v>
       </c>
       <c r="Q26" t="n">
-        <v>217.719925297644</v>
+        <v>34.41282282673529</v>
       </c>
     </row>
   </sheetData>
